--- a/planilha/janeiro/Escala ASO1 - Lagoinha - 1° Turno - Janeiro.xlsx
+++ b/planilha/janeiro/Escala ASO1 - Lagoinha - 1° Turno - Janeiro.xlsx
@@ -88,18 +88,18 @@
     <t>Ana Raquel</t>
   </si>
   <si>
-    <t>Marcela Alves</t>
+    <t>Marco Alves</t>
+  </si>
+  <si>
+    <t>Leo Albuquerque</t>
+  </si>
+  <si>
+    <t>Luiz Herculano</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Leo Albuquerque</t>
-  </si>
-  <si>
-    <t>Luiz Herculano</t>
-  </si>
-  <si>
     <t>Helena Brito</t>
   </si>
   <si>
@@ -115,7 +115,7 @@
     <t>Felipe Augusto</t>
   </si>
   <si>
-    <t>20/12/19</t>
+    <t>30/12/19</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
@@ -842,28 +842,28 @@
         <v>19</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>19</v>
@@ -878,22 +878,22 @@
         <v>9</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>19</v>
@@ -975,10 +975,10 @@
         <v>14</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>19</v>
@@ -990,10 +990,10 @@
         <v>19</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="R5" s="5" t="s">
         <v>9</v>
@@ -1002,16 +1002,16 @@
         <v>19</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>19</v>
@@ -1020,10 +1020,10 @@
         <v>19</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB5" s="5" t="s">
         <v>8</v>
@@ -1035,13 +1035,13 @@
         <v>19</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AH5" s="5" t="n"/>
       <c r="AI5" s="5" t="n"/>
@@ -1114,13 +1114,13 @@
         <v>19</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>19</v>
@@ -1135,25 +1135,25 @@
         <v>7</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>19</v>
@@ -1168,22 +1168,22 @@
         <v>14</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="3" t="s">
         <v>19</v>
@@ -1238,13 +1238,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
@@ -1255,83 +1255,83 @@
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>19</v>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>19</v>
+      <c r="AC7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AH7" s="5" t="n"/>
       <c r="AI7" s="5" t="n"/>
@@ -1380,7 +1380,7 @@
     </row>
     <row customHeight="1" ht="20" r="8" spans="1:48">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
@@ -1407,10 +1407,10 @@
         <v>13</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>19</v>
@@ -1422,28 +1422,28 @@
         <v>19</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>19</v>
@@ -1452,28 +1452,28 @@
         <v>19</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>19</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row customHeight="1" ht="20" r="9" spans="1:48">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1540,7 +1540,7 @@
       <c r="F9" s="5" t="s"/>
       <c r="G9" s="5" t="s"/>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -1577,10 +1577,10 @@
       </c>
       <c r="V9" s="5" t="s"/>
       <c r="W9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>19</v>
@@ -1589,7 +1589,7 @@
       <c r="AA9" s="5" t="s"/>
       <c r="AB9" s="5" t="s"/>
       <c r="AC9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD9" s="3" t="s">
         <v>19</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="AF9" s="5" t="s"/>
       <c r="AG9" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH9" s="5" t="n"/>
       <c r="AI9" s="5" t="n"/>
@@ -1666,7 +1666,7 @@
       <c r="G10" s="4" t="s"/>
       <c r="H10" s="4" t="s"/>
       <c r="I10" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>19</v>
@@ -1676,13 +1676,13 @@
       </c>
       <c r="L10" s="4" t="s"/>
       <c r="M10" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>19</v>
@@ -1690,7 +1690,7 @@
       <c r="Q10" s="4" t="s"/>
       <c r="R10" s="4" t="s"/>
       <c r="S10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>19</v>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="W10" s="4" t="s"/>
       <c r="X10" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>14</v>
@@ -1715,7 +1715,7 @@
       <c r="AB10" s="4" t="s"/>
       <c r="AC10" s="4" t="s"/>
       <c r="AD10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>19</v>
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
       <c r="F11" s="5" t="s"/>
       <c r="G11" s="5" t="s"/>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>19</v>
@@ -1823,10 +1823,10 @@
       </c>
       <c r="V11" s="5" t="s"/>
       <c r="W11" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>19</v>
@@ -1835,7 +1835,7 @@
       <c r="AA11" s="5" t="s"/>
       <c r="AB11" s="5" t="s"/>
       <c r="AC11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>19</v>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="AF11" s="5" t="s"/>
       <c r="AG11" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH11" s="5" t="n"/>
       <c r="AI11" s="5" t="n"/>
@@ -1897,59 +1897,79 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s"/>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s"/>
       <c r="F12" s="4" t="s"/>
       <c r="G12" s="4" t="s"/>
-      <c r="H12" s="4" t="s"/>
-      <c r="I12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>9</v>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K12" s="4" t="s"/>
-      <c r="L12" s="4" t="s"/>
-      <c r="M12" s="4" t="s"/>
-      <c r="N12" s="4" t="s"/>
-      <c r="O12" s="4" t="s">
-        <v>8</v>
+      <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="P12" s="4" t="s"/>
       <c r="Q12" s="4" t="s"/>
-      <c r="R12" s="4" t="s"/>
-      <c r="S12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>9</v>
+      <c r="R12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="V12" s="4" t="s"/>
-      <c r="W12" s="4" t="s"/>
-      <c r="X12" s="4" t="s"/>
-      <c r="Y12" s="4" t="s">
-        <v>7</v>
+      <c r="W12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Z12" s="4" t="s"/>
       <c r="AA12" s="4" t="s"/>
       <c r="AB12" s="4" t="s"/>
-      <c r="AC12" s="4" t="s"/>
-      <c r="AD12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>13</v>
+      <c r="AC12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="AF12" s="4" t="s"/>
-      <c r="AG12" s="4" t="s"/>
+      <c r="AG12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="AH12" s="4" t="n"/>
       <c r="AI12" s="4" t="n"/>
       <c r="AJ12" s="4" t="n"/>
@@ -2000,7 +2020,7 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -2012,7 +2032,7 @@
       <c r="F13" s="5" t="s"/>
       <c r="G13" s="5" t="s"/>
       <c r="H13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>19</v>
@@ -2022,13 +2042,13 @@
       </c>
       <c r="K13" s="5" t="s"/>
       <c r="L13" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>19</v>
@@ -2049,10 +2069,10 @@
       </c>
       <c r="V13" s="5" t="s"/>
       <c r="W13" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>19</v>
@@ -2071,7 +2091,7 @@
       </c>
       <c r="AF13" s="5" t="s"/>
       <c r="AG13" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AH13" s="5" t="n"/>
       <c r="AI13" s="5" t="n"/>
